--- a/data/income_statement/2digits/size/43_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/43_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>43-Specialised construction activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>43-Specialised construction activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,275 +841,310 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1605708.14862</v>
+        <v>1189408.175</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1844945.2295</v>
+        <v>1392004.3365</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2709192.57187</v>
+        <v>2017934.6315</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3624472.86607</v>
+        <v>3005030.93071</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4083980.57845</v>
+        <v>3293659.68093</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5507265.0345</v>
+        <v>4651282.115270001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5962165.69008</v>
+        <v>5757847.885199999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>11163521.35405</v>
+        <v>8362702.50058</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>16393191.21978</v>
+        <v>13968615.60055</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>13998526.03136</v>
+        <v>12488099.43136</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>14210628.16532</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13121198.72682</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>9486859.319</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1343976.75213</v>
+        <v>997285.2853000001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1558658.59358</v>
+        <v>1180669.66165</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2326344.36581</v>
+        <v>1700750.72579</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3173195.77826</v>
+        <v>2620687.14016</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3395961.860129999</v>
+        <v>2704536.03153</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4452472.807390001</v>
+        <v>3698405.91988</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5450760.72446</v>
+        <v>5261424.174389999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>10452455.26077</v>
+        <v>7754346.02611</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>15220412.48179</v>
+        <v>12981881.1497</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>12770638.30388</v>
+        <v>11424220.04938</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>12729050.89155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11798756.02306</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>8692595.493000001</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>194430.03101</v>
+        <v>133564.84386</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>226096.8962</v>
+        <v>168606.61639</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>329408.6572</v>
+        <v>272093.80913</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>382542.79497</v>
+        <v>331417.91831</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>624898.65747</v>
+        <v>539888.2252999999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>990645.66558</v>
+        <v>907474.13451</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>465666.4611</v>
+        <v>454309.03241</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>628372.11077</v>
+        <v>547856.9475700001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>967205.90761</v>
+        <v>866893.8136</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1106050.80895</v>
+        <v>964938.5451600001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1331714.50364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1203451.35147</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>717097.248</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>67301.36548000001</v>
+        <v>58558.04584000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>60189.73972</v>
+        <v>42728.05846</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>53439.54886000001</v>
+        <v>45090.09658</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>68734.29284000001</v>
+        <v>52925.87224</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>63120.06085</v>
+        <v>49235.4241</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>64146.56153</v>
+        <v>45402.06088</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>45738.50452</v>
+        <v>42114.6784</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>82693.98250999999</v>
+        <v>60499.5269</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>205572.83038</v>
+        <v>119840.63725</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>121836.91853</v>
+        <v>98940.83682</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>149862.77013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>118991.35229</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>77166.57799999999</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>3442.15931</v>
+        <v>2480.00238</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>5631.39996</v>
+        <v>4884.667810000001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>24268.53018000001</v>
+        <v>8583.612090000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>15836.87278</v>
+        <v>11314.59736</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>8350.07566</v>
+        <v>5817.60397</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>15964.73539</v>
+        <v>11825.90527</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>30115.03134</v>
+        <v>30187.46925</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1112023.43289</v>
+        <v>74041.00457</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>206129.75187</v>
+        <v>174891.837</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>179991.94006</v>
+        <v>121149.60801</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>57957.09367</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>47420.69527</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>79723.671</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2671.14267</v>
+        <v>1925.28142</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>4250.46369</v>
+        <v>3627.378</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>21981.26927</v>
+        <v>7046.63463</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>14252.89424</v>
+        <v>10774.22669</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>7159.299559999999</v>
+        <v>5343.523859999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>13851.1658</v>
+        <v>9789.82245</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>27913.63545</v>
+        <v>29468.92167</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1100477.33588</v>
+        <v>67140.72395999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>195167.64818</v>
+        <v>165577.67048</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>174648.37134</v>
+        <v>115811.37827</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>52960.6495</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>44798.16173</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>77171.39599999999</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>587.02649</v>
+        <v>554.72096</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1090.08595</v>
+        <v>966.43949</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1702.49796</v>
+        <v>1284.66734</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1321.232</v>
+        <v>424.67525</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>943.9044500000001</v>
+        <v>385.53007</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1819.24428</v>
+        <v>1794.9734</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1932.81648</v>
+        <v>494.47537</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>6280.85689</v>
+        <v>2178.32824</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>7716.73996</v>
+        <v>7376.61811</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>3011.79897</v>
@@ -1216,368 +1152,418 @@
       <c r="M11" s="48" t="n">
         <v>746.79905</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>1504.8</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>183.99015</v>
+        <v>0</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>290.85032</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>584.7629499999999</v>
+        <v>252.31012</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>262.74654</v>
+        <v>115.69542</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>246.87165</v>
+        <v>88.55004000000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>294.32531</v>
+        <v>241.10942</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>268.5794100000001</v>
+        <v>224.07221</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>5265.240119999999</v>
+        <v>4721.95237</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>3245.36373</v>
+        <v>1937.54841</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2331.76975</v>
+        <v>2326.430769999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>4249.64512</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1875.73449</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1047.475</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1602265.98931</v>
+        <v>1186928.17262</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1839313.82954</v>
+        <v>1387119.66869</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2684924.041689999</v>
+        <v>2009351.01941</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3608635.993290001</v>
+        <v>2993716.33335</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4075630.50279</v>
+        <v>3287842.07696</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5491300.299110001</v>
+        <v>4639456.21</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5932050.65874</v>
+        <v>5727660.415949999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>10051497.92116</v>
+        <v>8288661.49601</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>16187061.46791</v>
+        <v>13793723.76355</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>13818534.0913</v>
+        <v>12366949.82335</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>14152671.07165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>13073778.03155</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>9407135.648</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1332345.79817</v>
+        <v>1007643.01723</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1610686.63071</v>
+        <v>1237649.80872</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2325252.87525</v>
+        <v>1755165.11197</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3233188.92483</v>
+        <v>2695530.87692</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3601990.59878</v>
+        <v>2892755.15012</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4937111.28551</v>
+        <v>4144767.84239</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5249056.58108</v>
+        <v>5095814.21708</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>8357611.93964</v>
+        <v>6790565.00728</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>13853476.60143</v>
+        <v>11804301.70932</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>12060673.77229</v>
+        <v>10904952.65755</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>11820759.05962</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10862795.28388</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>7930526.34</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>254292.04908</v>
+        <v>225737.88558</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>243306.1897</v>
+        <v>182519.75654</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>354562.2061799999</v>
+        <v>285920.51646</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>332506.3997000001</v>
+        <v>259583.00816</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>237906.05047</v>
+        <v>195804.09632</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>451127.11239</v>
+        <v>422090.86955</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>413001.49691</v>
+        <v>391944.08338</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>668875.7897300001</v>
+        <v>610320.2749200001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1037072.15163</v>
+        <v>926185.28689</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>705349.91004</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>556689.7680299999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>546435.19186</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>632278.512</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>194706.42437</v>
+        <v>131058.6094</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>127363.64017</v>
+        <v>93615.78758999999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>277131.60236</v>
+        <v>204020.78956</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>406482.80165</v>
+        <v>327756.5702899999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>540230.09438</v>
+        <v>449872.44855</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>750284.4595499999</v>
+        <v>648671.6020200001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1062385.51222</v>
+        <v>846704.4353800002</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1428818.90224</v>
+        <v>1099141.99364</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2668206.82979</v>
+        <v>2270216.48324</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2246239.25664</v>
+        <v>2037127.70101</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1727418.69726</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1380363.51279</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>806826.298</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>881101.2941999999</v>
+        <v>649851.09635</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1225254.2836</v>
+        <v>949521.7044500001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1647374.3479</v>
+        <v>1226098.61611</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2478572.70498</v>
+        <v>2104523.57317</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2796084.74572</v>
+        <v>2234430.22613</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3702178.906990001</v>
+        <v>3056541.45685</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3752535.2363</v>
+        <v>3844332.08775</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>6235843.83081</v>
+        <v>5067614.70005</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>10043370.29251</v>
+        <v>8521509.46001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>9017928.65336</v>
+        <v>8076968.23387</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>9430738.58288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>8856306.578260001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>6475272.608</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>2246.03052</v>
+        <v>995.4259000000001</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>14762.51724</v>
+        <v>11992.56014</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>46184.71881000001</v>
+        <v>39125.18984000001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>15627.0185</v>
+        <v>3667.7253</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>27769.70821</v>
+        <v>12648.37912</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>33520.80658</v>
+        <v>17463.91397</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>21134.33565</v>
+        <v>12833.61057</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>24073.41686</v>
+        <v>13488.03867</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>104827.3275</v>
+        <v>86390.47918000001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>91155.95225</v>
+        <v>85506.81263</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>105912.01145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>79690.00096999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>16148.922</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>269920.1911400001</v>
+        <v>179285.15539</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>228627.19883</v>
+        <v>149469.85997</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>359671.16644</v>
+        <v>254185.90744</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>375447.06846</v>
+        <v>298185.45643</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>473639.90401</v>
+        <v>395086.92684</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>554189.0136000001</v>
+        <v>494688.36761</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>682994.0776600001</v>
+        <v>631846.19887</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1693885.98152</v>
+        <v>1498096.48873</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>2333584.86648</v>
+        <v>1989422.05423</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1757860.31901</v>
+        <v>1461997.1658</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2331912.01203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2210982.74767</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1476609.308</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>118722.98581</v>
+        <v>70735.81802000001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>128954.96806</v>
+        <v>75863.16085000001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>220278.64548</v>
+        <v>151666.13663</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>224318.53884</v>
+        <v>165696.80649</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>230537.85656</v>
+        <v>169900.55869</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>295900.35322</v>
+        <v>230351.73869</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>240991.53508</v>
+        <v>223559.66583</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>451407.8988000001</v>
+        <v>306615.92473</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>593047.49077</v>
+        <v>432345.94903</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>532350.58499</v>
+        <v>460468.07575</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>709978.5206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>628575.4314400001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>717261.115</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>3.10494</v>
+        <v>0</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>92.23727000000001</v>
@@ -1586,19 +1572,19 @@
         <v>226.71503</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>883.82972</v>
+        <v>778.4409000000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1339.80175</v>
+        <v>1295.34791</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>339.1539</v>
+        <v>11.89517</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>367.03496</v>
+        <v>25.3</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>335.65764</v>
+        <v>8.65</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>65.24054</v>
@@ -1606,311 +1592,351 @@
       <c r="M21" s="48" t="n">
         <v>33508.7248</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>42261.739</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>17539.41941</v>
+        <v>10681.83505</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>17238.76778</v>
+        <v>9638.64494</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>17522.65906</v>
+        <v>13982.71018</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>26751.93278</v>
+        <v>21213.15401</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>24149.62362</v>
+        <v>21382.35685</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>38432.68373</v>
+        <v>32424.84498000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>33334.75042</v>
+        <v>29332.45808</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>51838.83636</v>
+        <v>31567.82823</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>78029.67659</v>
+        <v>53269.30919</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>76407.66944</v>
+        <v>70892.17237999999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>121021.00263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>113930.15457</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>85929.228</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>101180.46146</v>
+        <v>60053.98297</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>111715.75028</v>
+        <v>66224.51591000002</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>202663.74915</v>
+        <v>137591.18918</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>197339.89103</v>
+        <v>144256.93745</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>205504.40322</v>
+        <v>147739.76094</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>256127.86774</v>
+        <v>196631.5458</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>207317.63076</v>
+        <v>194215.31258</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>399202.02748</v>
+        <v>275022.7965</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>514682.15654</v>
+        <v>379067.98984</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>455877.67501</v>
+        <v>389510.66283</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>555448.79317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>481136.55207</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>589070.148</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>151197.20533</v>
+        <v>108549.33737</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>99672.23077000001</v>
+        <v>73606.69912</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>139392.52096</v>
+        <v>102519.77081</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>151128.52962</v>
+        <v>132488.64994</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>243102.04745</v>
+        <v>225186.36815</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>258288.66038</v>
+        <v>264336.62892</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>442002.54258</v>
+        <v>408286.53304</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1242478.08272</v>
+        <v>1191480.564</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1740537.37571</v>
+        <v>1557076.1052</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1225509.73402</v>
+        <v>1001529.09005</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1621933.49143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1582407.31623</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>759348.193</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>494888.82805</v>
+        <v>65909.7093</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>406894.73004</v>
+        <v>88902.67399000001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>391570.0851300001</v>
+        <v>127101.55127</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>447873.12124</v>
+        <v>120206.55153</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>382030.2537499999</v>
+        <v>242427.53232</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>583577.82259</v>
+        <v>362744.0888900001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>721668.6823199999</v>
+        <v>733440.86139</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1297168.71736</v>
+        <v>942138.1974500001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>1567940.83128</v>
+        <v>1321661.60956</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>4530100.769549999</v>
+        <v>3677972.51932</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2005110.34812</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1534287.53339</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1916877.366</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>26639.16845</v>
+        <v>12758.10549</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>22292.05237</v>
+        <v>15650.67692</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>19860.14094</v>
+        <v>17365.34359</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>9574.941260000001</v>
+        <v>7227.316140000001</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>13319.79148</v>
+        <v>3995.81618</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>6480.52502</v>
+        <v>2007.7025</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>8845.894190000001</v>
+        <v>5580.645259999999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>9900.7788</v>
+        <v>2171.62089</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>95224.88962999999</v>
+        <v>21487.24067</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>59922.26104</v>
+        <v>40117.24278</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>309705.74687</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>240827.79007</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>62924.752</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>248711.36206</v>
+        <v>694.37679</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>219580.05021</v>
+        <v>4063.69001</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>151310.8298</v>
+        <v>888.8502999999999</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>219824.66017</v>
+        <v>418.67618</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>24672.09438</v>
+        <v>1063.3865</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>76674.9185</v>
+        <v>2749.30358</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>590.4813399999999</v>
+        <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>3293.32788</v>
+        <v>3159.02806</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>2214.49278</v>
+        <v>16.2592</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>17778.26831</v>
+        <v>14260.79412</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>117383.45686</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>3450.84144</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>16717.42033</v>
+        <v>3675.734440000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>18102.91486</v>
+        <v>7282.36834</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>22994.14946</v>
+        <v>12614.25713</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>28443.66132</v>
+        <v>13358.84984</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>24039.26513</v>
+        <v>16942.2781</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>36633.18539</v>
+        <v>24602.10929</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>53174.39091</v>
+        <v>45127.03069</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>110685.64301</v>
+        <v>75179.51534</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>112664.98628</v>
+        <v>73695.70231000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>182124.21797</v>
+        <v>118096.17709</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>147255.99947</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>118001.66944</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>60986.883</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>4.23729</v>
+        <v>0</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>0.636</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>3053.18884</v>
+        <v>2.0625</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>440.14553</v>
+        <v>81.22031000000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>276.45356</v>
+        <v>21</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>538.40365</v>
+        <v>0.1086</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>21.92348</v>
+        <v>20.7435</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>380.54854</v>
+        <v>374.95337</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1172.21433</v>
+        <v>915.62629</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>3.70772</v>
@@ -1918,128 +1944,148 @@
       <c r="M29" s="48" t="n">
         <v>227.55289</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>6.701</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>2026.23421</v>
+        <v>2009.15005</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>2498.10987</v>
+        <v>1837.70775</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2447.0534</v>
+        <v>1693.33574</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>8287.421850000001</v>
+        <v>6975.18542</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>9740.77655</v>
+        <v>9566.269490000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>5683.54455</v>
+        <v>5610.54455</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3275.89127</v>
+        <v>3387.76185</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>6951.68677</v>
+        <v>6318.38664</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>14864.50253</v>
+        <v>13983.4168</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>21068.68877</v>
+        <v>19417.8133</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>6239.46089</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>5821.08383</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>11832.742</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>210.54824</v>
+        <v>119.01243</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1279.26979</v>
+        <v>107.35997</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>759.13126</v>
+        <v>108.43447</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1098.29269</v>
+        <v>718.3654799999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1578.35604</v>
+        <v>1399.77089</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>842.8538299999999</v>
+        <v>694.6554100000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>138421.54271</v>
+        <v>300.74917</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1258.62036</v>
+        <v>833.00417</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1953.01075</v>
+        <v>774.8748900000002</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>673.26378</v>
+        <v>598.94251</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>2537.28947</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>990.2583599999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2330.539</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>188863.59075</v>
+        <v>42733.75984</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>116153.10827</v>
+        <v>55930.56743</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>172113.03098</v>
+        <v>85372.12724000002</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>153617.79281</v>
+        <v>79399.67771</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>246284.37878</v>
+        <v>197158.58188</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>427689.8994200001</v>
+        <v>313274.20144</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>469645.0921599999</v>
+        <v>648579.7373200001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1053293.89556</v>
+        <v>796484.7869900001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1213087.79205</v>
+        <v>1102209.28403</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>4116893.836</v>
+        <v>3368026.548990001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1351848.22275</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1097733.66992</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1733540.727</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2048,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>23.95812</v>
+        <v>0</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>0</v>
@@ -2063,22 +2109,27 @@
         <v>0</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>52.73782</v>
+        <v>45.61214</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>352.73835</v>
+        <v>317.70887</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>16.168</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2099,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>563.20812</v>
+        <v>383.0928</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>16.48506</v>
@@ -2113,245 +2164,280 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>11716.26672</v>
+        <v>3919.57026</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>26665.27774</v>
+        <v>3706.35664</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>19008.60233</v>
+        <v>9057.140300000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>26210.87851</v>
+        <v>11651.93335</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>61934.42497999999</v>
+        <v>12095.71643</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>29034.49223</v>
+        <v>13805.46352</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>47130.25814</v>
+        <v>30061.1008</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>111334.99356</v>
+        <v>57554.80479</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>126758.94293</v>
+        <v>108579.20537</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>131283.78761</v>
+        <v>117133.58394</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>69912.61892000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>67234.66744</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>45238.854</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>125652.77207</v>
+        <v>49679.97620999999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>122562.2244</v>
+        <v>51005.21812999999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>165795.22865</v>
+        <v>100753.37516</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>186859.82355</v>
+        <v>99867.57892999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>323166.61071</v>
+        <v>234255.30214</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>452141.58218</v>
+        <v>322640.7326</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>503725.35852</v>
+        <v>690340.2201500001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1031318.37031</v>
+        <v>794804.1782999999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1254919.5473</v>
+        <v>1119987.67861</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>4317502.94216</v>
+        <v>3606723.97598</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1652304.21189</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1408478.17874</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1855810.637</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>3646.90614</v>
+        <v>0.40221</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>55.17977</v>
+        <v>22.50152</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>46.72246000000001</v>
+        <v>11.63455</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>263.87316</v>
+        <v>239.17254</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1998.54789</v>
+        <v>76.20941000000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1247.91567</v>
+        <v>192.68968</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1107.55384</v>
+        <v>210.45405</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>345.3115</v>
+        <v>201.40484</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>4204.0379</v>
+        <v>782.6875200000001</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>256.61429</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>915.8793799999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>476.9311</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>123.321</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>8712.752639999999</v>
+        <v>7173.134529999999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>2659.07558</v>
+        <v>2467.36583</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>9045.894719999998</v>
+        <v>8695.822969999999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>17208.69771</v>
+        <v>14774.34757</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>22768.39308</v>
+        <v>21381.48935</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>10485.60788</v>
+        <v>5373.738609999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>12809.7332</v>
+        <v>12968.61036</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>68627.69137999999</v>
+        <v>67064.96274</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>31475.83004</v>
+        <v>28399.44502</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>35106.33629</v>
+        <v>12594.41784</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>29441.25858</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>26320.50609</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>37981.13</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>19.15427</v>
+        <v>0.62185</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>109.54662</v>
+        <v>61.83629</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>2958.57197</v>
+        <v>29.33446</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>97.87262</v>
+        <v>76.10716000000001</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>185.31338</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>13.78401</v>
+        <v>13.10381</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0.42678</v>
+        <v>905.2056799999999</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>246.98047</v>
+        <v>0.65761</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>428.5364300000001</v>
+        <v>101.98422</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>806.27002</v>
+        <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>14374</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>93.855</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>109985.75457</v>
+        <v>40518.02662</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>97801.04269</v>
+        <v>45613.40944</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>145719.18147</v>
+        <v>89484.20420000002</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>148034.30546</v>
+        <v>72618.15704000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>287727.5492</v>
+        <v>209191.1948</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>423401.23156</v>
+        <v>303527.85718</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>466544.74497</v>
+        <v>661486.35048</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>930463.5100199999</v>
+        <v>706448.0139400001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1188253.43303</v>
+        <v>1066474.32669</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>4187306.77247</v>
+        <v>3508567.32915</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1477523.69536</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1244673.67992</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1792882.841</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2381,16 +2467,21 @@
         <v>15.5</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>35.02948000000001</v>
+        <v>0</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>58.48202000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2399,10 +2490,10 @@
         <v>323.31093</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>1242.13588</v>
+        <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>383.21014</v>
+        <v>0</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>3288.204450000001</v>
+        <v>1987.791</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>21614.06881</v>
+        <v>2516.79412</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>6782.72215</v>
+        <v>2532.37898</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>20871.86446</v>
+        <v>12159.79462</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>10406.372</v>
+        <v>3340.66004</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>16983.74704</v>
+        <v>13524.0473</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>23258.71204</v>
+        <v>14765.41189</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>31634.87694</v>
+        <v>21089.13917</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>30542.2099</v>
+        <v>24213.73516</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>93991.91960999998</v>
+        <v>85305.61470000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>129990.89655</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>122574.57961</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>24729.49</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>135244.74349</v>
+        <v>33832.94769</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>60310.95359</v>
+        <v>29589.63107</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>69861.73676</v>
+        <v>38856.28066</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>89283.07262000001</v>
+        <v>45733.98151</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>102787.02676</v>
+        <v>56432.80693</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>131495.24446</v>
+        <v>74014.37185000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>154481.6544</v>
+        <v>104324.66559</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>215981.229</v>
+        <v>153185.08472</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>346931.08613</v>
+        <v>236228.87478</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>442685.73537</v>
+        <v>268276.41368</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>428501.53493</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>346528.30633</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>166621.525</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>116974.01742</v>
+        <v>16859.01189</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>49074.7863</v>
+        <v>20136.84022</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>55852.23965</v>
+        <v>30868.03112</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>80613.75005</v>
+        <v>37622.25668</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>85429.25753</v>
+        <v>52461.46721</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>105710.32792</v>
+        <v>65013.92089</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>133643.10619</v>
+        <v>96626.10368</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>192662.84739</v>
+        <v>142105.56289</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>320984.3688300001</v>
+        <v>224667.9116</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>392781.85175</v>
+        <v>260509.09678</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>413059.5824600001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>342454.5975</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>163215.697</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>18270.72607</v>
+        <v>16973.9358</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>11236.16729</v>
+        <v>9452.790849999999</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>14009.49711</v>
+        <v>7988.24954</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>8669.32257</v>
+        <v>8111.72483</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>17357.76923</v>
+        <v>3971.33972</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>25784.91654</v>
+        <v>9000.45096</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>20838.54821</v>
+        <v>7698.56191</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>23318.38161</v>
+        <v>11079.52183</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>25946.7173</v>
+        <v>11560.96318</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>49903.88362</v>
+        <v>7767.316900000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>15441.95247</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>4073.70883</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>3405.828</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>385188.51782</v>
+        <v>90946.12277</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>323693.78282</v>
+        <v>81914.52391</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>295305.64068</v>
+        <v>90011.66626</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>322858.75469</v>
+        <v>107093.64103</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>199178.66373</v>
+        <v>176925.7914</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>258229.65633</v>
+        <v>230425.61336</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>505464.21198</v>
+        <v>347062.50869</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1292347.20077</v>
+        <v>1185629.49843</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1706627.57356</v>
+        <v>1522521.16137</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>995421.82604</v>
+        <v>804501.2197100001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1546238.09273</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1361688.36455</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>653793.397</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>18753.80626</v>
+        <v>11098.10228</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>22864.59753</v>
+        <v>12541.33051</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>41980.49481</v>
+        <v>28314.7167</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>96356.86622</v>
+        <v>38990.89459</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>55914.30805</v>
+        <v>33272.9441</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>88875.26290999999</v>
+        <v>65821.37043</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>102410.45218</v>
+        <v>65087.70204</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>298118.17766</v>
+        <v>95474.17695000002</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>298346.12912</v>
+        <v>134252.63671</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>195291.18844</v>
+        <v>132871.0631</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>102215.24977</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>73708.79575999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>112288.645</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>4415.963849999999</v>
+        <v>2678.88282</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>3673.01103</v>
+        <v>2574.37127</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>2337.20277</v>
+        <v>105.81565</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>3100.09364</v>
+        <v>1320.15911</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1944.25357</v>
+        <v>1748.54285</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>11824.16612</v>
+        <v>11801.41074</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>17875.49227</v>
+        <v>16958.74533</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>18143.95509</v>
+        <v>13322.02439</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>7534.32934</v>
+        <v>6869.697139999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>5408.01551</v>
+        <v>5285.84955</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>6693.97743</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>6241.99745</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>26545.524</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>14337.84241</v>
+        <v>8419.219459999998</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>19191.5865</v>
+        <v>9966.95924</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>39643.29204</v>
+        <v>28208.90105</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>93256.77258000002</v>
+        <v>37670.73548</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>53970.05448000001</v>
+        <v>31524.40125</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>77051.09679</v>
+        <v>54019.95969</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>84534.95990999999</v>
+        <v>48128.95671</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>279974.22257</v>
+        <v>82152.15256</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>290811.7997799999</v>
+        <v>127382.93957</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>189883.17293</v>
+        <v>127585.21355</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>95521.27234</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>67466.79831</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>85743.121</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>41360.58145000001</v>
+        <v>21099.80461</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>50041.95049</v>
+        <v>22212.1818</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>179590.70198</v>
+        <v>80218.27731999999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>53693.77306</v>
+        <v>41911.84237000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>70275.03342000001</v>
+        <v>52072.44622000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>111220.05982</v>
+        <v>74784.5923</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>90833.47581</v>
+        <v>49186.30027</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>176256.45543</v>
+        <v>102652.96596</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>151698.53481</v>
+        <v>115133.10787</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>268222.1345</v>
+        <v>229057.58306</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>115185.58013</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>86450.88718000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>119331.806</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>8076.53638</v>
+        <v>7673.792979999999</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>13752.71001</v>
+        <v>12857.63624</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>9649.947390000001</v>
+        <v>8330.586939999999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>4414.0047</v>
+        <v>2767.25833</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>10607.7142</v>
+        <v>10219.70493</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>3797.57901</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>4234.16974</v>
+        <v>4129.42507</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>4284.86676</v>
+        <v>2374.72393</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>8183.12776</v>
+        <v>7565.114710000001</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>8269.874089999999</v>
+        <v>123.6209</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>5995.28554</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>3739.96988</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>12120.107</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>6022.720149999999</v>
+        <v>2919.87825</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>17481.63973</v>
+        <v>3576.95519</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>5298.20534</v>
+        <v>3451.70904</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>5492.95501</v>
+        <v>3150.00667</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>10235.53959</v>
+        <v>8752.977989999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>12278.89238</v>
+        <v>11046.72669</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>19615.95024</v>
+        <v>18313.72606</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>13965.08333</v>
+        <v>11021.82</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>21387.18289</v>
+        <v>15863.08196</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>26175.45145</v>
+        <v>14950.71339</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>21494.85253</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>17103.71268</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>37743.19</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>27261.32492</v>
+        <v>10506.13338</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>18807.60075</v>
+        <v>5777.59037</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>164642.54925</v>
+        <v>68435.98134</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>43786.81335</v>
+        <v>35994.57737000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>49431.77963</v>
+        <v>33099.7633</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>95143.58842999999</v>
+        <v>59940.2866</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>66983.35583</v>
+        <v>26743.14914</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>158006.50534</v>
+        <v>89256.42203</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>122128.22416</v>
+        <v>91704.91119999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>233776.80896</v>
+        <v>213983.24877</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>87695.44206</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>65607.20462</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>69468.50900000001</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>362581.7426299999</v>
+        <v>80944.42044</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>296516.42986</v>
+        <v>72243.67261999998</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>157695.43351</v>
+        <v>38108.10564</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>365521.84785</v>
+        <v>104172.69325</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>184817.93836</v>
+        <v>158126.28928</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>235884.85942</v>
+        <v>221462.39149</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>517041.18835</v>
+        <v>362963.91046</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1414208.923</v>
+        <v>1178450.70942</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>1853275.16787</v>
+        <v>1541640.69021</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>922490.87998</v>
+        <v>708314.69975</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1533267.76237</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1348946.27313</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>646750.236</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>25090.50118</v>
+        <v>8443.347740000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>18050.86943</v>
+        <v>11307.99398</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>33931.39071</v>
+        <v>19485.51257</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>34280.02158</v>
+        <v>19995.60667</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>30530.0593</v>
+        <v>23827.3357</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>48957.11248</v>
+        <v>43628.36236</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>76660.68883</v>
+        <v>67253.53045000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>272700.61748</v>
+        <v>218194.11522</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>339267.31141</v>
+        <v>307425.76618</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>242740.85516</v>
+        <v>188354.11869</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>351312.12629</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>335286.98694</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>122907.546</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>337491.24145</v>
+        <v>72501.07270000002</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>278465.56043</v>
+        <v>60935.67864</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>123764.0428</v>
+        <v>18622.59307</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>331241.82627</v>
+        <v>84177.08658</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>154287.87906</v>
+        <v>134298.95358</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>186927.74694</v>
+        <v>177834.02913</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>440380.49952</v>
+        <v>295710.38001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1141508.30552</v>
+        <v>960256.5942000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1514007.85646</v>
+        <v>1234214.92403</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>679750.02482</v>
+        <v>519960.58106</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1181955.63608</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1013659.28619</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>523842.69</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>263</v>
+        <v>128</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>341</v>
+        <v>161</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>85</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>